--- a/PRODUTOS/Limpeza/Limpeza - Lava roupas.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Lava roupas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Brilhante 2,2 Limpeza</t>
+          <t>Passe Bem Pulverizador 500ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 38,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd8988ce-0901-43ea-a6dd-bdbd2233e28d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f824fc32-bd30-485c-b6d2-513933559cea.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891035032004</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Ativo Concentrado 2,2kg</t>
+          <t>Tira Manchas Em Po Vanish O2 450g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 37,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f83de79d-e40d-4f5d-b186-261d44a57ea7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b74e6c4c-705b-4c8c-ba21-a3259a22af8e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891035050619</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo Lavagem Perfeita 800g</t>
+          <t>Sabao Liquido Coco Urca 500ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f065a2-afc4-4a5b-b344-b3599718a60e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9df7829a-98fd-465d-8845-01a213fa86ee.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896056400740</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Amaciante Downy Leve 500ml Pague 450 Ml Brisa De Verão</t>
+          <t>Sabao Em Po De Coco Urca 500gr</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 12,59</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c9061d0-8d35-40a4-b2c7-98b7b6014cfb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14852fb7-495a-447c-b366-c67accf7ef58.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896056401471</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lava Roupas Líquido Omo Lavagem Perfeita Refil 900ml</t>
+          <t>Sabao De Coco Ufe Em Po 500g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f19a85c8-e4c8-432f-8a20-5fe066a8bb4d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc040f32-a9b7-4af0-80ce-03bd5acd17fe.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896060401559</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sabão Líquido Omo Lavagem Perfeita 3lt</t>
+          <t>Lava Roupas Ola 500ml Original</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30adaebc-7185-443f-8f43-756d607c3b3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ade0d0cb-ab39-4d15-911d-1afa2acd0d12.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891024128503</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Sachê 2,4kg</t>
+          <t>Lava Roupas Vida Macia Baby 500ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5d4fd45-7b0e-4009-adfa-dd9c04b407f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e133914a-9cd0-4021-8f53-8faf0655d35e.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896040701389</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sabao Em Pó Omo Lav Perf Cx 800g Sanitiza</t>
+          <t>Anil Imperial Colman 90g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 15,89</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1484c738-d4a0-471c-992c-311519147e25.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00d5ed95-b2d8-4fb0-aa72-f67a56f85a53.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891035010200</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sabao Em Pó Brilhante Sch 800g Lim Total</t>
+          <t>Vanish Resolv Pre-lavagem 450ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f368b201-dc9d-4873-9b77-6a162cdf17b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f123d1c-663d-4502-bc40-16e14733bfa2.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891035017001</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Omo 1,8l Ultra Power</t>
+          <t>Tira Manchas Vanish Poder O2 Crystal 450g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 37,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fb481de-393b-4e7b-89b0-d3d0615b4c88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e870bb4b-6c1a-41f3-b626-52a849adf0d8.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891035050619</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sabao Em Po Brilhant Sc 1,6kg Limp</t>
+          <t>Lava Calcinhas C&amp;b 300ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e88f86ec-8284-4b93-8bd2-a55b70d1de49.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49659bca-e8a8-4ec8-b8a3-3b49a97746c6.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896495000846</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo Lavagem Perfeita 1,6kg</t>
+          <t>Lava Roupas Ola Bebe 500ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6edd011-a330-4984-b6a5-366e3e23b7a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e271d770-8a35-4a08-9e9b-95055ee1e6d2.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891024128510</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Brilhante 3l Limpeza Total</t>
+          <t>Vanish White Liquido 500ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c9cb15-520e-437b-8cc3-e1355bda0436.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd4f0128-0b46-4183-b3c7-711232f76131.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891035040436</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lava Roupas Brilhante 1,8l Limpeza Total</t>
+          <t>Lava Roupas Ola 1lt Original</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f5ef91c-63e2-4837-8c83-8eb85993544e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/777dbf2b-1f15-4330-9511-99a8dea569a1.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891024128565</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Sanitiza &amp; Higieniza 2,2kg</t>
+          <t>Lava Roupas Ola 1lt Bebe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 33,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ca9d64-0b8c-4717-8cb4-486448b4bb0a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caa7bf2a-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891024128596</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype 160g Neutro</t>
+          <t>Alv Vanish S/cloro Super Barra 75g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/843434ba-8434-4ffd-857d-7551bf73b986.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5abe8215-cec0-4d63-aa65-e4eb5707355d.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891035040191</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lava Roupa Líquido Omo Puro Cuidado 3lt</t>
+          <t>Alv Vanish Super Barra 75g White</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e374744c-de7f-43d9-9432-673a1933c93c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebf68546-9a2a-4996-81a4-5d32623b9c96.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891035040191</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lava Roupas Ariel 700ml Classico</t>
+          <t>Alvejante Vanish Refil 400g Pó</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02f0513c-01b2-4d68-b4fe-c025e0ae13a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53f98a53-2504-4b08-9e1a-fac4fb9a6714.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891035051272</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lava Roupas Líquido Brilhante Higiene Total Refil 900ml</t>
+          <t>Lava Roupa Ola Coco 500ml</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d59140d-434b-42ba-b83b-e60f36936e9d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce08dde5-b398-47c0-afdf-a5ede29a0615.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891024039847</t>
         </is>
       </c>
     </row>
@@ -974,7 +1074,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lava-roupas Em Pó Brilhante Limpeza Total 1,6kg</t>
+          <t>Lava Roupas Em Pó Omo Lavagem Perfeita 1,6kg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -984,7 +1084,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f638a06-faed-4fe6-9082-5b02f40d15dc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6edd011-a330-4984-b6a5-366e3e23b7a1.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lava Roupa Liquido Brilhante Rf 900ml Limpeza Total</t>
+          <t>Lava Roupas Em Pó Omo 800g Puro Cuidado</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37e13f1f-e9fa-4ecc-85a1-d064bf0542a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d109c0c-af50-4e0b-b4b2-8ab9b641ebc8.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891150064652</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alvejante Vanish Refil 400g Pó</t>
+          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Sachê 2,4kg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53f98a53-2504-4b08-9e1a-fac4fb9a6714.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5d4fd45-7b0e-4009-adfa-dd9c04b407f5.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Higiene Total Brilhante 1,6kg</t>
+          <t>Sab Liq Omo Puro Cuid 900 Ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08d01b09-476e-4498-a89d-29d628b27198.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc350e82-11d8-4bbb-a0d9-633993f5dc40.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891150020689</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Alvejante Vanish Refil 400g Cristal White</t>
+          <t>Sabao Em Po Omo Puro Cuidado 1,6 Kg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 30,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30bee51d-d94f-4a2f-a443-1525b29e3c5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0f9116a-a928-4dc6-823c-fbc925c28bb2.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891150064676</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sab Liq Omo Puro Cuid 900 Ml</t>
+          <t>Lava Roupas Líquido Omo Lavagem Perfeita Refil 900ml</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc350e82-11d8-4bbb-a0d9-633993f5dc40.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f19a85c8-e4c8-432f-8a20-5fe066a8bb4d.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sabao Liquido Coco Urca 500ml</t>
+          <t>Sabao Em Po Brilhant Sc 1,6kg Limp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9df7829a-98fd-465d-8845-01a213fa86ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e88f86ec-8284-4b93-8bd2-a55b70d1de49.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891150086449</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sabao Em Po Omo Puro Cuidado 1,6 Kg</t>
+          <t>Lava Roupas Liq Conc Omo 500ml Ref Dilui</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 30,99</t>
+          <t>R$ 43,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0f9116a-a928-4dc6-823c-fbc925c28bb2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee3cd117-1138-4e80-a377-00578b58a3fa.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891150061903</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype C/ 5un Aloe Vera</t>
+          <t>Lava-roupas Em Pó Brilhante Limpeza Total 1,6kg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85495d7b-570d-4716-a51a-c1d0ab6db142.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f638a06-faed-4fe6-9082-5b02f40d15dc.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891150066632</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lava Roupas Po Tixan Ype 800g Maciez</t>
+          <t>Sabao Em Pó Brilhante Sch 800g Lim Total</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/133db596-727a-40a5-a55b-30137d8766a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f368b201-dc9d-4873-9b77-6a162cdf17b7.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891150086432</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sabao De Coco Em Barras Urca 180g</t>
+          <t>Tira Mancha Brilhante Utile 2lt Floral</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2273426c-df74-47cb-bd17-e6d6f86d4cd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7356901f-daf3-4cfa-a034-520f9cf1619f.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891150067905</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lava Roupas Vida Macia Baby 500ml</t>
+          <t>Sabao Em Pó Omo Lav Perf Cx 800g Sanitiza</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 15,89</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e133914a-9cd0-4021-8f53-8faf0655d35e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1484c738-d4a0-471c-992c-311519147e25.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891150072138</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lava Roupas Urca Azul 3l</t>
+          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Ativo Concentrado 2,2kg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa90ecda-ec19-4354-8603-0e8a5807a5e0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f83de79d-e40d-4f5d-b186-261d44a57ea7.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype 160g Multiativo</t>
+          <t>Sab Omo Liq Roupas Delicadas 450ml Origi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dd922e8-906d-491c-9ab3-2c70e5acb4c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4aa7aa8-43ff-4674-9bc9-4eecead9cb82.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891150067202</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype 160g Aloe Vera</t>
+          <t>Lava Roupas Em Pó Omo Lavagem Perfeita Sanitiza &amp; Higieniza 2,2kg</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ebb4ddf-223f-4aa6-ae62-75b7e8ded580.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ca9d64-0b8c-4717-8cb4-486448b4bb0a.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo 800g Puro Cuidado</t>
+          <t>Lava Roupas Liquido Plush 1lt Planet</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d109c0c-af50-4e0b-b4b2-8ab9b641ebc8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b2b5ead-ada1-406f-8b11-2aa25141c2fb.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896183304270</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo 360g Expert Roupas Brancas</t>
+          <t>Passa Facil Plush Refil 500ml</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/539d1a13-76a5-483d-a86c-a757daa2c548.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9581925-363f-4480-b979-b4f03b340f1c.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896183300975</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Coala 3l Chá Branco</t>
+          <t>Lava Roupas Em Po Brilhante 800g Delicadez Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b57a85a6-c1e3-4281-aab1-ec252c5af91c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/357801ce-08e1-4e60-a7cf-490a923ab53a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891150093867</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Po Brilhante 800g Delicadez Total</t>
+          <t>Lava Roupas Liq Plush 1l Coco</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/357801ce-08e1-4e60-a7cf-490a923ab53a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3593e7b-718b-4b77-846a-6cc27e94776c.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896183309619</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Coala 3l Orquídea Negra</t>
+          <t>Lava Roupas Em Pó Higiene Total Brilhante 1,6kg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9bafd07f-fe88-4c0c-ac3c-890a5c1c5e27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08d01b09-476e-4498-a89d-29d628b27198.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891150093867</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Neutro Ype C/5un</t>
+          <t>Sabao Em Barra Ype 160g Multiativo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a988b571-51c3-47fb-91f7-e4059d7fb162.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dd922e8-906d-491c-9ab3-2c70e5acb4c0.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896098905937</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lava Roupas Liq Conc Omo 500ml Ref Dilui</t>
+          <t>Lava Roupas Em Po Omo 400g Lavagem Perfeit</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 43,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee3cd117-1138-4e80-a377-00578b58a3fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17890c6b-1b73-4e98-a122-ed5120595084.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vanish White Liquido 500ml</t>
+          <t>Lava Roupas Liquido Surf 3l 5 Em 1 Coco</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd4f0128-0b46-4183-b3c7-711232f76131.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3dcf5e65-8d20-40f7-b8af-8c25665fa139.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7891150063495</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alv Vanish S/cloro Super Barra 75g</t>
+          <t>Lava Roupas Liquido Surf 3l 5 Em 1 Lavanda</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5abe8215-cec0-4d63-aa65-e4eb5707355d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15b48a0b-4939-481b-923c-d4d795b57ae4.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7891150063631</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lava Roupas Ariel 2l 50 Lavagen T. Donny</t>
+          <t>Sabao Em Barra Ype C/ 5un Multiativo</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 59,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c78e79f6-081c-450c-88a3-1c416f0981fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10fd81e3-74a8-47cf-a73d-2b5e5d052405.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896098905937</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Alv Vanish Super Barra 75g White</t>
+          <t>Lava Roupas Po Tixan Ype 800g Maciez</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebf68546-9a2a-4996-81a4-5d32623b9c96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/133db596-727a-40a5-a55b-30137d8766a3.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896098909751</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lava Roupas Urca Verde 3l</t>
+          <t>Lava Roupa Tixan Ype 400g Maciez</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62d361e0-cb86-4c20-8629-9551612aa028.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b4ef6e4-fa43-4237-9377-c070196d186f.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896098909737</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vanish Resolv Pre-lavagem 450ml</t>
+          <t>Lava Roupas Liquido Omo 900ml Roupas De Bebe</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f123d1c-663d-4502-bc40-16e14733bfa2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/026c7348-c342-4918-9e1d-847917c1c3e6.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7891024128596</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lava Roupa Liquido Omo Sache 900ml Lavanda</t>
+          <t>Sabao Em Barras Ype 160g Coco Tq Aveia</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/042f5155-de22-4cfa-bfb5-cde0363caa9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b15b493-629c-497b-b343-e681ca8af6e6.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896056407077</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sabao Em Barras Ype 160g Coco Tq Aveia</t>
+          <t>Sabao Em Barra Ype C/ 5un Coco E Aveia</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b15b493-629c-497b-b343-e681ca8af6e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b10af56-1783-4011-a1f5-5f21ed40b21d.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896098905982</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sabão De Coco Em Barra Urca 90g Com 5 Unidades</t>
+          <t>Sabao Em Barra Ype C/5un Fresh</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12a26f27-9266-49ca-b7f0-f176093bbfed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e2d2fd-1dce-4b31-aebc-825cb91581ed.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896098905951</t>
         </is>
       </c>
     </row>
@@ -1811,7 +2066,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sabão De Coco Em Barras Urca C/5un 180g</t>
+          <t>Sabao Em Barra De Coco Ufe C/05 Un 90g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1821,7 +2076,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12a26f27-9266-49ca-b7f0-f176093bbfed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/057fff5b-38bf-4325-aca9-365bdbcf8251.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896056407091</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Po Brilhante 800g Limpezatotal</t>
+          <t>Sabão De Coco Em Barra Urca 90g Com 5 Unidades</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56e6c112-c554-4e97-b72f-86f9d945dac0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12a26f27-9266-49ca-b7f0-f176093bbfed.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896056407114</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Omo 900ml Roupas De Bebe</t>
+          <t>Sabao De Coco Em Barra Ufe 5un 180g Cada</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/026c7348-c342-4918-9e1d-847917c1c3e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/028a6677-c58b-4f52-bd7e-9718977ae8e7.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896056407084</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lava Roupa Em Po Brilhante 800g Cuidado Total</t>
+          <t>Sabao De Coco Em Barras Urca 180g</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a37e5a24-9478-41af-a325-18008a15c023.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2273426c-df74-47cb-bd17-e6d6f86d4cd3.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896056407077</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype C/ 5un Multiativo</t>
+          <t>Sabão De Coco Em Barras Urca C/5un 180g</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10fd81e3-74a8-47cf-a73d-2b5e5d052405.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12a26f27-9266-49ca-b7f0-f176093bbfed.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896056407077</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Surf 3l 5 Em 1 Coco</t>
+          <t>Lava Roupas Liquido Omo 900ml Finas E Delicadas Pretas E Escuras</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3dcf5e65-8d20-40f7-b8af-8c25665fa139.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3d411ca-d3b3-4703-b882-827440a7c12f.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891150063815</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lava Roupa Tixan Ype 400g Maciez</t>
+          <t>Lava Roupas Liquido Omo 900ml Finas E Delicadas Original</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b4ef6e4-fa43-4237-9377-c070196d186f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/039800bc-2167-4a56-a7d8-67e016aeb649.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891150063808</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Surf 3l 5 Em 1 Lavanda</t>
+          <t>Lava Roupas Em Pó Omo 360g Expert Roupas Brancas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15b48a0b-4939-481b-923c-d4d795b57ae4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/539d1a13-76a5-483d-a86c-a757daa2c548.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891150092211</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lava Roupas Liquido Plush 1lt Planet</t>
+          <t>Lava Roupas Em Po Brilhante 1,6kg Delicadeza Total</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b2b5ead-ada1-406f-8b11-2aa25141c2fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f8f1137-fdf0-4033-91ee-a7921c6ca97c.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7891150093867</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sabao Em Barra De Coco Ufe C/05 Un 90g</t>
+          <t>Lava Roupa Liquido Omo Galão 3l Lavanda</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/057fff5b-38bf-4325-aca9-365bdbcf8251.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a6cc853-7a1d-4839-a83e-1f4e16af0542.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7891150062825</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sabao Em Po De Coco Urca 500gr</t>
+          <t>Lava Roupa Liquido Omo Sache 900ml Lavanda</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14852fb7-495a-447c-b366-c67accf7ef58.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/042f5155-de22-4cfa-bfb5-cde0363caa9b.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891150078413</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lava Roupas Liq 30lav Downy 1200lt</t>
+          <t>Lava Roupas Em Pó Omo 1,6kg Lavanda</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cf61ba3-203d-455f-a94b-c67c38613022.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43d09421-92af-44ac-87cc-fbb3401bf260.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891150080201</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Alv Vanish Pod O2 120g</t>
+          <t>Lava Roupas Em Pó Omo 800g Lavanda</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55b632e7-ac6d-4807-a976-1808316e458d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bb155dc-4c3b-4abb-ac73-8b12bbf46075.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891150080188</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sabao Em Barra Ype 160g Fresh</t>
+          <t>Passador Passe Bem Refil 400ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b5b75d8-1504-436f-9618-b8875012a3d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a5bc18f-1d23-47b1-82bc-c96cebc9b861.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891035002441</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sabao De Coco Ufe Em Po 500g</t>
+          <t>Lava Roupas Em Pó Omo 720g Expert Roupas Brancas</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc040f32-a9b7-4af0-80ce-03bd5acd17fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f51704e-5e54-4939-a6f0-cd6c4232a35a.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891150092211</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tira Manchas Vanish Poder O2 Crystal 450g</t>
+          <t>Lava Roupas Liquido Surf Refil 900ml 5 Em 1 Cuidado Do Coco</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 37,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e870bb4b-6c1a-41f3-b626-52a849adf0d8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e691af-d4ce-44c3-b551-695ed299c98f.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7891150063495</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lava Roupas Em Pó Omo 800g Lavanda</t>
+          <t>Lava Roupas Liquido Surf Refil 900ml 5 Em 1 Lavanda</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bb155dc-4c3b-4abb-ac73-8b12bbf46075.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4308366-44ea-489e-beae-1a2142ff9ee0.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7891150063631</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Passe Bem Pulverizador 500ml</t>
+          <t>Lava Roupas Liquido Omo 750ml Ciclo Rápido Ação Cuidado</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f824fc32-bd30-485c-b6d2-513933559cea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/472b481c-b59a-4187-92fd-e28756d873b6.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7891150104266</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lava Roupas Liq Ariel 1200 Ml 30 Lavagen</t>
+          <t>Lava Roupas Liquido Omo 750ml Ciclo Rápido Ação Total</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6400970-bcc8-46ae-9423-2a9d5469ecab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/477a0a17-adc9-4f76-8a5b-43d990efeae3.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7891150104273</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tira Manchas Em Po Vanish O2 450g</t>
+          <t>Lava Roupas Liquido Coala 3l Chá Branco</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 37,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b74e6c4c-705b-4c8c-ba21-a3259a22af8e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b57a85a6-c1e3-4281-aab1-ec252c5af91c.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7897744506003</t>
         </is>
       </c>
     </row>
@@ -2351,908 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lava Roupas Ola 1lt Bebe</t>
+          <t>Lava Roupas Em Pó Omo Lavagem Perfeita 800g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 33,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/caa7bf2a-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Lava Roupa Ola Coco 500ml</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce08dde5-b398-47c0-afdf-a5ede29a0615.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liq Plush 1l Coco</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3593e7b-718b-4b77-846a-6cc27e94776c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Lava Roupas Ola 1lt Original</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>R$ 33,99</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/777dbf2b-1f15-4330-9511-99a8dea569a1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Lava Roupas Ariel 2 L 50 Lavagen</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59d7c931-8a40-421c-9707-8dbcf0a77616.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Sabao De Coco Em Barra Ufe 5un 180g Cada</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/028a6677-c58b-4f52-bd7e-9718977ae8e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Passa Facil Plush Refil 500ml</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9581925-363f-4480-b979-b4f03b340f1c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Lava Roupas Ola 500ml Original</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ade0d0cb-ab39-4d15-911d-1afa2acd0d12.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Tira Mancha Brilhante Utile 2lt Floral</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7356901f-daf3-4cfa-a034-520f9cf1619f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Sabao Em Barra Ype C/ 5un Coco E Aveia</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b10af56-1783-4011-a1f5-5f21ed40b21d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Lav Roupas Ariel 3l Classico</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>R$ 69,99</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9f707de-23aa-4e0e-ac54-f6e7ed0d11f3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Lava Roupas Em Pó Urca 2,2kg</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51e37bb8-05fc-432a-9ed2-c2d2675fe30b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Sabao De Coco Em Barras Ufe 180g</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34ffa670-db12-427f-94aa-a77f3290e42e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Omo 900ml Finas E Delicadas Pretas E Escuras</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3d411ca-d3b3-4703-b882-827440a7c12f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Lava Roupas Em Pó Omo 1,6kg Lavanda</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43d09421-92af-44ac-87cc-fbb3401bf260.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Lava Roupas Ola Bebe 500ml</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e271d770-8a35-4a08-9e9b-95055ee1e6d2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Sab Omo Liq Roupas Delicadas 450ml Origi</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>R$ 13,49</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4aa7aa8-43ff-4674-9bc9-4eecead9cb82.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Lava Calcinhas C&amp;b 300ml</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49659bca-e8a8-4ec8-b8a3-3b49a97746c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Omo 900ml Finas E Delicadas Original</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/039800bc-2167-4a56-a7d8-67e016aeb649.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Semorin 50ml</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5b3a986-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Passador Passe Bem Refil 400ml</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a5bc18f-1d23-47b1-82bc-c96cebc9b861.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Lava Roupa Liquido Omo Galão 3l Lavanda</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06b5b548-12f0-4d93-90d2-03b63da725e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Anil Liquido Colman 200ml</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b3369a7-91fe-469a-914f-9208872d5817.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Sabao Em Barra Ype C/5un Fresh</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07e2d2fd-1dce-4b31-aebc-825cb91581ed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Lava Roupas Uau Refil 800ml Active</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/97880344-e493-4804-b7ae-53539579edc0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Lava Roupas Em Po Brilhante 1,6kg Delicadeza Total</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f8f1137-fdf0-4033-91ee-a7921c6ca97c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Uau Refil 800ml Rosas E Sedução</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1cdb3776-ce9c-4124-a3f8-bbe78ef407ac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Anil Imperial Colman 90g</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 31,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00d5ed95-b2d8-4fb0-aa72-f67a56f85a53.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Omo 750ml Ciclo Rápido Ação Total</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/477a0a17-adc9-4f76-8a5b-43d990efeae3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Omo 750ml Ciclo Rápido Ação Cuidado</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/472b481c-b59a-4187-92fd-e28756d873b6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Lava Roupas Em Pó Omo 720g Expert Roupas Brancas</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f51704e-5e54-4939-a6f0-cd6c4232a35a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Surf Refil 900ml 5 Em 1 Cuidado Do Coco</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53e691af-d4ce-44c3-b551-695ed299c98f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Surf Refil 900ml 5 Em 1 Lavanda</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4308366-44ea-489e-beae-1a2142ff9ee0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Lava roupas</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Lava Roupas Liquido Omo 750ml Ciclo Rápido Ação Antiodor</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba5ebe2c-4b14-42b5-8b66-f14e91d9cdc5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1f065a2-afc4-4a5b-b344-b3599718a60e.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7891150065284</t>
         </is>
       </c>
     </row>
